--- a/Lecture1.xlsx
+++ b/Lecture1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOQ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50496452-5E4F-4581-8D05-9BF6A161C19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630632BC-7815-43E1-B823-58DA9D40A940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="720" xr2:uid="{FBEE0547-C1DD-4B7A-A3EB-2BA1446463BC}"/>
   </bookViews>
@@ -35,43 +35,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1058,807 +1021,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.2272345867068753E-2"/>
-          <c:y val="3.358456069222443E-2"/>
-          <c:w val="0.91545530826586252"/>
-          <c:h val="0.85635752471162296"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tables!$O$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr">
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Tables!$N$7:$N$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tables!$O$7:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D6A-4FC5-847B-7B4E14F6B0D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="50"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1288465247"/>
-        <c:axId val="1288468607"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1288465247"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1288468607"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1288468607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1288465247"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
-  <a:schemeClr val="accent3"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1930,42 +1092,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>125895</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946E212B-97A3-0E79-3B5A-4613DAACC2A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2641,65 +1767,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <fb t="e">#NAME?</fb>
-    <v>4</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F25471B-FB33-49C1-BF43-19B935C6105B}" name="Sales" displayName="Sales" ref="C6:I21" totalsRowCount="1" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" dataCellStyle="Comma">
   <autoFilter ref="C6:I20" xr:uid="{1F25471B-FB33-49C1-BF43-19B935C6105B}"/>
@@ -3018,7 +2085,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3144,10 +2211,7 @@
       <c r="J6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="10" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="N6" ca="1">_xlfn.GROUPBY(D6:D21,I6:I21,_xleta.SUM,3,0,-2)</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -4388,7 +3452,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
